--- a/datasets/tasks.xlsx
+++ b/datasets/tasks.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,47 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>modified</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>80b1787c-dc54-40f8-9be1-69c6deba7659</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>add all housing locs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1ee21dad-c8ff-49da-b74d-3af27f532e6c</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>add jobs to objects as experiences</t>
         </is>
       </c>
     </row>
@@ -462,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,20 +559,14 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -550,20 +585,14 @@
           <t>created</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,20 +611,40 @@
           <t>modified</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
